--- a/data/mapping/v3_to_v5/eamena_csv_export/EAMENA_2022-09-26_03-23-29_temp.xlsx
+++ b/data/mapping/v3_to_v5/eamena_csv_export/EAMENA_2022-09-26_03-23-29_temp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\mapping\v3_to_v5\eamena_csv_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EF09681E-E798-4260-A18D-B480713B5183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B2442-54BB-4BAF-8CAF-A0F0F9D20374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAMENA_2022-09-26_03-23-29" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EAMENA_2022-09-26_03-23-29'!$A$1:$CG$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="870">
   <si>
     <t>PRIMARY NAME</t>
   </si>
@@ -2639,7 +2642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2776,7 +2779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2968,6 +2971,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3129,7 +3144,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3138,6 +3153,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3492,333 +3514,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BZ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BO90" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BS108" sqref="BS108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="55.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.88671875" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" customWidth="1"/>
-    <col min="19" max="19" width="28.21875" customWidth="1"/>
-    <col min="20" max="20" width="25.44140625" customWidth="1"/>
-    <col min="21" max="21" width="26.21875" customWidth="1"/>
-    <col min="22" max="22" width="29.88671875" customWidth="1"/>
-    <col min="23" max="23" width="255.77734375" customWidth="1"/>
-    <col min="24" max="24" width="49.21875" customWidth="1"/>
-    <col min="25" max="25" width="73" customWidth="1"/>
-    <col min="26" max="26" width="127.109375" customWidth="1"/>
-    <col min="27" max="27" width="56.5546875" customWidth="1"/>
-    <col min="28" max="28" width="60.21875" customWidth="1"/>
-    <col min="29" max="29" width="49" customWidth="1"/>
-    <col min="30" max="31" width="37.5546875" customWidth="1"/>
-    <col min="32" max="32" width="47.44140625" customWidth="1"/>
-    <col min="33" max="33" width="56.5546875" customWidth="1"/>
-    <col min="34" max="34" width="94.109375" customWidth="1"/>
-    <col min="35" max="35" width="56.21875" customWidth="1"/>
-    <col min="36" max="36" width="113.88671875" customWidth="1"/>
-    <col min="37" max="37" width="136.109375" customWidth="1"/>
-    <col min="38" max="38" width="59.33203125" customWidth="1"/>
-    <col min="39" max="39" width="41.5546875" customWidth="1"/>
-    <col min="40" max="40" width="154.5546875" customWidth="1"/>
-    <col min="41" max="41" width="224.33203125" customWidth="1"/>
-    <col min="42" max="42" width="137.88671875" customWidth="1"/>
-    <col min="43" max="43" width="44" customWidth="1"/>
-    <col min="44" max="44" width="28.21875" customWidth="1"/>
-    <col min="45" max="45" width="20.6640625" customWidth="1"/>
-    <col min="46" max="46" width="23.6640625" customWidth="1"/>
-    <col min="47" max="47" width="15.44140625" customWidth="1"/>
-    <col min="48" max="48" width="23.109375" customWidth="1"/>
-    <col min="49" max="49" width="169.6640625" customWidth="1"/>
-    <col min="50" max="50" width="150.44140625" customWidth="1"/>
-    <col min="51" max="51" width="28.21875" customWidth="1"/>
-    <col min="52" max="52" width="26.44140625" customWidth="1"/>
-    <col min="53" max="53" width="31.44140625" customWidth="1"/>
-    <col min="54" max="54" width="37.33203125" customWidth="1"/>
-    <col min="55" max="55" width="55.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="75.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="60.21875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="49" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="26.6640625" style="4"/>
+    <col min="18" max="19" width="26.6640625" style="12"/>
+    <col min="55" max="56" width="26.6640625" style="5"/>
+    <col min="61" max="62" width="26.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CG1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3849,10 +3799,10 @@
       <c r="Q2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="12" t="s">
         <v>68</v>
       </c>
       <c r="T2" t="s">
@@ -3897,10 +3847,10 @@
       <c r="BH2" t="s">
         <v>70</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>68</v>
       </c>
       <c r="BK2" t="s">
@@ -3921,11 +3871,8 @@
       <c r="BZ2" t="s">
         <v>61</v>
       </c>
-      <c r="CG2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -3962,10 +3909,10 @@
       <c r="Q3" t="s">
         <v>88</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="T3" t="s">
@@ -4010,10 +3957,10 @@
       <c r="BH3" t="s">
         <v>60</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ3" s="10" t="s">
         <v>90</v>
       </c>
       <c r="BK3" t="s">
@@ -4034,11 +3981,8 @@
       <c r="BZ3" t="s">
         <v>61</v>
       </c>
-      <c r="CG3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -4075,10 +4019,10 @@
       <c r="Q4" t="s">
         <v>103</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T4" t="s">
@@ -4174,10 +4118,10 @@
       <c r="BH4" t="s">
         <v>60</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BI4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BJ4" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK4" t="s">
@@ -4213,11 +4157,8 @@
       <c r="BZ4" t="s">
         <v>61</v>
       </c>
-      <c r="CG4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -4254,10 +4195,10 @@
       <c r="Q5" t="s">
         <v>130</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T5" t="s">
@@ -4308,10 +4249,10 @@
       <c r="BH5" t="s">
         <v>130</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BI5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BJ5" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK5" t="s">
@@ -4332,11 +4273,8 @@
       <c r="BZ5" t="s">
         <v>61</v>
       </c>
-      <c r="CG5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -4379,11 +4317,8 @@
       <c r="BZ6" t="s">
         <v>61</v>
       </c>
-      <c r="CG6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -4435,11 +4370,8 @@
       <c r="BZ7" t="s">
         <v>152</v>
       </c>
-      <c r="CG7" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -4455,10 +4387,10 @@
       <c r="Q8" t="s">
         <v>103</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T8" t="s">
@@ -4482,20 +4414,17 @@
       <c r="BH8" t="s">
         <v>60</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BI8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BJ8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK8" t="s">
         <v>158</v>
       </c>
-      <c r="CG8" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -4514,10 +4443,10 @@
       <c r="Q9" t="s">
         <v>103</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="12" t="s">
         <v>151</v>
       </c>
       <c r="T9" t="s">
@@ -4568,10 +4497,10 @@
       <c r="BH9" t="s">
         <v>151</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BI9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BJ9" s="10" t="s">
         <v>151</v>
       </c>
       <c r="BK9" t="s">
@@ -4589,11 +4518,8 @@
       <c r="BW9" t="s">
         <v>168</v>
       </c>
-      <c r="CG9" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -4639,11 +4565,8 @@
       <c r="BS10" t="s">
         <v>78</v>
       </c>
-      <c r="CG10" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -4680,10 +4603,10 @@
       <c r="Q11" t="s">
         <v>130</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T11" t="s">
@@ -4734,10 +4657,10 @@
       <c r="BH11" t="s">
         <v>130</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BI11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BJ11" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK11" t="s">
@@ -4758,11 +4681,8 @@
       <c r="BZ11" t="s">
         <v>61</v>
       </c>
-      <c r="CG11" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -4787,10 +4707,10 @@
       <c r="Q12" t="s">
         <v>188</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="12" t="s">
         <v>90</v>
       </c>
       <c r="T12" t="s">
@@ -4859,10 +4779,10 @@
       <c r="BH12" t="s">
         <v>90</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BI12" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BJ12" s="10" t="s">
         <v>90</v>
       </c>
       <c r="BK12" t="s">
@@ -4880,11 +4800,8 @@
       <c r="BZ12" t="s">
         <v>61</v>
       </c>
-      <c r="CG12" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -4933,10 +4850,10 @@
       <c r="Q13" t="s">
         <v>130</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T13" t="s">
@@ -4996,10 +4913,10 @@
       <c r="BH13" t="s">
         <v>60</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BI13" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BJ13" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK13" t="s">
@@ -5041,11 +4958,8 @@
       <c r="BZ13" t="s">
         <v>152</v>
       </c>
-      <c r="CG13" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -5082,10 +4996,10 @@
       <c r="Q14" t="s">
         <v>130</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T14" t="s">
@@ -5130,10 +5044,10 @@
       <c r="BH14" t="s">
         <v>130</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BI14" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BJ14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK14" t="s">
@@ -5151,11 +5065,8 @@
       <c r="BZ14" t="s">
         <v>61</v>
       </c>
-      <c r="CG14" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -5192,10 +5103,10 @@
       <c r="Q15" t="s">
         <v>130</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T15" t="s">
@@ -5246,10 +5157,10 @@
       <c r="BH15" t="s">
         <v>130</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BI15" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BJ15" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK15" t="s">
@@ -5270,11 +5181,8 @@
       <c r="BZ15" t="s">
         <v>61</v>
       </c>
-      <c r="CG15" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -5293,11 +5201,8 @@
       <c r="AA16" s="2">
         <v>43742</v>
       </c>
-      <c r="CG16" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -5358,11 +5263,8 @@
       <c r="BZ17" t="s">
         <v>61</v>
       </c>
-      <c r="CG17" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -5411,11 +5313,8 @@
       <c r="BZ18" t="s">
         <v>61</v>
       </c>
-      <c r="CG18" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -5452,10 +5351,10 @@
       <c r="Q19" t="s">
         <v>130</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T19" t="s">
@@ -5500,10 +5399,10 @@
       <c r="BH19" t="s">
         <v>130</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BI19" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BJ19" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK19" t="s">
@@ -5521,11 +5420,8 @@
       <c r="BZ19" t="s">
         <v>61</v>
       </c>
-      <c r="CG19" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -5568,11 +5464,8 @@
       <c r="BZ20" t="s">
         <v>152</v>
       </c>
-      <c r="CG20" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -5621,11 +5514,8 @@
       <c r="BZ21" t="s">
         <v>61</v>
       </c>
-      <c r="CG21" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -5659,10 +5549,10 @@
       <c r="Q22" t="s">
         <v>130</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T22" t="s">
@@ -5710,10 +5600,10 @@
       <c r="BH22" t="s">
         <v>130</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BI22" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BJ22" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK22" t="s">
@@ -5734,11 +5624,8 @@
       <c r="BZ22" t="s">
         <v>61</v>
       </c>
-      <c r="CG22" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>261</v>
       </c>
@@ -5781,11 +5668,8 @@
       <c r="BZ23" t="s">
         <v>61</v>
       </c>
-      <c r="CG23" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>264</v>
       </c>
@@ -5822,10 +5706,10 @@
       <c r="Q24" t="s">
         <v>130</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T24" t="s">
@@ -5873,10 +5757,10 @@
       <c r="BH24" t="s">
         <v>130</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BI24" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BJ24" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK24" t="s">
@@ -5897,11 +5781,8 @@
       <c r="BZ24" t="s">
         <v>61</v>
       </c>
-      <c r="CG24" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -5950,11 +5831,8 @@
       <c r="BZ25" t="s">
         <v>61</v>
       </c>
-      <c r="CG25" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -6000,11 +5878,8 @@
       <c r="BZ26" t="s">
         <v>61</v>
       </c>
-      <c r="CG26" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -6056,11 +5931,8 @@
       <c r="AX27" t="s">
         <v>118</v>
       </c>
-      <c r="CG27" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -6097,10 +5969,10 @@
       <c r="Q28" t="s">
         <v>88</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="12" t="s">
         <v>90</v>
       </c>
       <c r="T28" t="s">
@@ -6166,10 +6038,10 @@
       <c r="BH28" t="s">
         <v>90</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BI28" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BJ28" s="10" t="s">
         <v>90</v>
       </c>
       <c r="BK28" t="s">
@@ -6196,11 +6068,8 @@
       <c r="BY28" t="s">
         <v>294</v>
       </c>
-      <c r="CG28" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>307</v>
       </c>
@@ -6234,10 +6103,10 @@
       <c r="Q29" t="s">
         <v>313</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="12" t="s">
         <v>313</v>
       </c>
       <c r="T29" t="s">
@@ -6348,10 +6217,10 @@
       <c r="BH29" t="s">
         <v>313</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BI29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BJ29" s="10" t="s">
         <v>313</v>
       </c>
       <c r="BK29" t="s">
@@ -6384,11 +6253,8 @@
       <c r="BY29" t="s">
         <v>315</v>
       </c>
-      <c r="CG29" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>332</v>
       </c>
@@ -6425,10 +6291,10 @@
       <c r="Q30" t="s">
         <v>130</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T30" t="s">
@@ -6542,10 +6408,10 @@
       <c r="BH30" t="s">
         <v>130</v>
       </c>
-      <c r="BI30" t="s">
+      <c r="BI30" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="BJ30" t="s">
+      <c r="BJ30" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK30" t="s">
@@ -6575,11 +6441,8 @@
       <c r="BW30" t="s">
         <v>319</v>
       </c>
-      <c r="CG30" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>357</v>
       </c>
@@ -6616,10 +6479,10 @@
       <c r="Q31" t="s">
         <v>88</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="12" t="s">
         <v>90</v>
       </c>
       <c r="T31" t="s">
@@ -6679,10 +6542,10 @@
       <c r="BH31" t="s">
         <v>90</v>
       </c>
-      <c r="BI31" t="s">
+      <c r="BI31" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ31" t="s">
+      <c r="BJ31" s="10" t="s">
         <v>90</v>
       </c>
       <c r="BK31" t="s">
@@ -6703,11 +6566,8 @@
       <c r="BT31" t="s">
         <v>110</v>
       </c>
-      <c r="CG31" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>365</v>
       </c>
@@ -6741,10 +6601,10 @@
       <c r="Q32" t="s">
         <v>130</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T32" t="s">
@@ -6801,10 +6661,10 @@
       <c r="BH32" t="s">
         <v>130</v>
       </c>
-      <c r="BI32" t="s">
+      <c r="BI32" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="BJ32" t="s">
+      <c r="BJ32" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK32" t="s">
@@ -6837,11 +6697,8 @@
       <c r="BY32" t="s">
         <v>369</v>
       </c>
-      <c r="CG32" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>373</v>
       </c>
@@ -6878,10 +6735,10 @@
       <c r="Q33" t="s">
         <v>130</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T33" t="s">
@@ -6986,10 +6843,10 @@
       <c r="BH33" t="s">
         <v>130</v>
       </c>
-      <c r="BI33" t="s">
+      <c r="BI33" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BJ33" t="s">
+      <c r="BJ33" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK33" t="s">
@@ -7010,11 +6867,8 @@
       <c r="BT33" t="s">
         <v>137</v>
       </c>
-      <c r="CG33" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>388</v>
       </c>
@@ -7048,10 +6902,10 @@
       <c r="Q34" t="s">
         <v>103</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T34" t="s">
@@ -7141,10 +6995,10 @@
       <c r="BH34" t="s">
         <v>130</v>
       </c>
-      <c r="BI34" t="s">
+      <c r="BI34" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="BJ34" t="s">
+      <c r="BJ34" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK34" t="s">
@@ -7177,11 +7031,8 @@
       <c r="BY34" t="s">
         <v>393</v>
       </c>
-      <c r="CG34" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>402</v>
       </c>
@@ -7218,10 +7069,10 @@
       <c r="Q35" t="s">
         <v>88</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="12" t="s">
         <v>90</v>
       </c>
       <c r="T35" t="s">
@@ -7278,10 +7129,10 @@
       <c r="BH35" t="s">
         <v>90</v>
       </c>
-      <c r="BI35" t="s">
+      <c r="BI35" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ35" t="s">
+      <c r="BJ35" s="10" t="s">
         <v>90</v>
       </c>
       <c r="BK35" t="s">
@@ -7302,11 +7153,8 @@
       <c r="BT35" t="s">
         <v>110</v>
       </c>
-      <c r="CG35" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>410</v>
       </c>
@@ -7340,10 +7188,10 @@
       <c r="Q36" t="s">
         <v>313</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="12" t="s">
         <v>313</v>
       </c>
       <c r="T36" t="s">
@@ -7400,10 +7248,10 @@
       <c r="BH36" t="s">
         <v>313</v>
       </c>
-      <c r="BI36" t="s">
+      <c r="BI36" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="BJ36" t="s">
+      <c r="BJ36" s="10" t="s">
         <v>313</v>
       </c>
       <c r="BK36" t="s">
@@ -7436,11 +7284,8 @@
       <c r="BY36" t="s">
         <v>415</v>
       </c>
-      <c r="CG36" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>417</v>
       </c>
@@ -7477,10 +7322,10 @@
       <c r="Q37" t="s">
         <v>130</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T37" t="s">
@@ -7585,10 +7430,10 @@
       <c r="BH37" t="s">
         <v>60</v>
       </c>
-      <c r="BI37" t="s">
+      <c r="BI37" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ37" t="s">
+      <c r="BJ37" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK37" t="s">
@@ -7609,11 +7454,8 @@
       <c r="BT37" t="s">
         <v>69</v>
       </c>
-      <c r="CG37" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>432</v>
       </c>
@@ -7680,11 +7522,8 @@
       <c r="BZ38" t="s">
         <v>152</v>
       </c>
-      <c r="CG38" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>438</v>
       </c>
@@ -7703,11 +7542,8 @@
       <c r="AA39" s="2">
         <v>43621</v>
       </c>
-      <c r="CG39" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>440</v>
       </c>
@@ -7753,11 +7589,8 @@
       <c r="BZ40" t="s">
         <v>152</v>
       </c>
-      <c r="CG40" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>444</v>
       </c>
@@ -7803,11 +7636,8 @@
       <c r="BZ41" t="s">
         <v>152</v>
       </c>
-      <c r="CG41" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>448</v>
       </c>
@@ -7859,11 +7689,8 @@
       <c r="BZ42" t="s">
         <v>61</v>
       </c>
-      <c r="CG42" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>452</v>
       </c>
@@ -7912,11 +7739,8 @@
       <c r="BZ43" t="s">
         <v>61</v>
       </c>
-      <c r="CG43" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>456</v>
       </c>
@@ -7965,11 +7789,8 @@
       <c r="BZ44" t="s">
         <v>152</v>
       </c>
-      <c r="CG44" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>460</v>
       </c>
@@ -8018,11 +7839,8 @@
       <c r="BZ45" t="s">
         <v>152</v>
       </c>
-      <c r="CG45" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>464</v>
       </c>
@@ -8071,11 +7889,8 @@
       <c r="BZ46" t="s">
         <v>61</v>
       </c>
-      <c r="CG46" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>469</v>
       </c>
@@ -8124,11 +7939,8 @@
       <c r="BZ47" t="s">
         <v>61</v>
       </c>
-      <c r="CG47" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>473</v>
       </c>
@@ -8177,11 +7989,8 @@
       <c r="BZ48" t="s">
         <v>61</v>
       </c>
-      <c r="CG48" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>477</v>
       </c>
@@ -8230,11 +8039,8 @@
       <c r="BZ49" t="s">
         <v>61</v>
       </c>
-      <c r="CG49" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>481</v>
       </c>
@@ -8283,11 +8089,8 @@
       <c r="BZ50" t="s">
         <v>61</v>
       </c>
-      <c r="CG50" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>486</v>
       </c>
@@ -8336,22 +8139,16 @@
       <c r="BZ51" t="s">
         <v>152</v>
       </c>
-      <c r="CG51" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>491</v>
       </c>
       <c r="B52" t="s">
         <v>492</v>
       </c>
-      <c r="CG52" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>493</v>
       </c>
@@ -8400,11 +8197,8 @@
       <c r="BZ53" t="s">
         <v>152</v>
       </c>
-      <c r="CG53" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>496</v>
       </c>
@@ -8489,11 +8283,8 @@
       <c r="BZ54" t="s">
         <v>61</v>
       </c>
-      <c r="CG54" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>505</v>
       </c>
@@ -8527,10 +8318,10 @@
       <c r="Q55" t="s">
         <v>130</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T55" t="s">
@@ -8629,10 +8420,10 @@
       <c r="BH55" t="s">
         <v>130</v>
       </c>
-      <c r="BI55" t="s">
+      <c r="BI55" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="BJ55" t="s">
+      <c r="BJ55" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK55" t="s">
@@ -8662,11 +8453,8 @@
       <c r="BZ55" t="s">
         <v>61</v>
       </c>
-      <c r="CG55" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>527</v>
       </c>
@@ -8715,11 +8503,8 @@
       <c r="BZ56" t="s">
         <v>61</v>
       </c>
-      <c r="CG56" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>531</v>
       </c>
@@ -8750,10 +8535,10 @@
       <c r="Q57" t="s">
         <v>103</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="S57" t="s">
+      <c r="S57" s="12" t="s">
         <v>151</v>
       </c>
       <c r="T57" t="s">
@@ -8843,10 +8628,10 @@
       <c r="BH57" t="s">
         <v>151</v>
       </c>
-      <c r="BI57" t="s">
+      <c r="BI57" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="BJ57" t="s">
+      <c r="BJ57" s="10" t="s">
         <v>151</v>
       </c>
       <c r="BK57" t="s">
@@ -8858,11 +8643,8 @@
       <c r="BZ57" t="s">
         <v>61</v>
       </c>
-      <c r="CG57" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>541</v>
       </c>
@@ -8977,11 +8759,8 @@
       <c r="BZ58" t="s">
         <v>61</v>
       </c>
-      <c r="CG58" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -9057,11 +8836,8 @@
       <c r="BZ59" t="s">
         <v>61</v>
       </c>
-      <c r="CG59" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>559</v>
       </c>
@@ -9131,11 +8907,8 @@
       <c r="BZ60" t="s">
         <v>61</v>
       </c>
-      <c r="CG60" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>567</v>
       </c>
@@ -9226,11 +8999,8 @@
       <c r="BZ61" t="s">
         <v>61</v>
       </c>
-      <c r="CG61" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>574</v>
       </c>
@@ -9288,11 +9058,8 @@
       <c r="BZ62" t="s">
         <v>61</v>
       </c>
-      <c r="CG62" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>579</v>
       </c>
@@ -9347,11 +9114,8 @@
       <c r="BZ63" t="s">
         <v>61</v>
       </c>
-      <c r="CG63" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>585</v>
       </c>
@@ -9382,10 +9146,10 @@
       <c r="Q64" t="s">
         <v>88</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="S64" t="s">
+      <c r="S64" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T64" t="s">
@@ -9457,10 +9221,10 @@
       <c r="BH64" t="s">
         <v>60</v>
       </c>
-      <c r="BI64" t="s">
+      <c r="BI64" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="BJ64" t="s">
+      <c r="BJ64" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK64" t="s">
@@ -9472,11 +9236,8 @@
       <c r="BZ64" t="s">
         <v>61</v>
       </c>
-      <c r="CG64" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>597</v>
       </c>
@@ -9543,11 +9304,8 @@
       <c r="BZ65" t="s">
         <v>61</v>
       </c>
-      <c r="CG65" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>602</v>
       </c>
@@ -9599,11 +9357,8 @@
       <c r="BZ66" t="s">
         <v>61</v>
       </c>
-      <c r="CG66" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>608</v>
       </c>
@@ -9646,11 +9401,8 @@
       <c r="BZ67" t="s">
         <v>61</v>
       </c>
-      <c r="CG67" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>612</v>
       </c>
@@ -9702,11 +9454,8 @@
       <c r="BZ68" t="s">
         <v>61</v>
       </c>
-      <c r="CG68" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>616</v>
       </c>
@@ -9773,11 +9522,8 @@
       <c r="BZ69" t="s">
         <v>61</v>
       </c>
-      <c r="CG69" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>621</v>
       </c>
@@ -9829,11 +9575,8 @@
       <c r="BZ70" t="s">
         <v>61</v>
       </c>
-      <c r="CG70" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>624</v>
       </c>
@@ -9876,11 +9619,8 @@
       <c r="BZ71" t="s">
         <v>61</v>
       </c>
-      <c r="CG71" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>628</v>
       </c>
@@ -9926,11 +9666,8 @@
       <c r="BZ72" t="s">
         <v>61</v>
       </c>
-      <c r="CG72" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>632</v>
       </c>
@@ -9982,11 +9719,8 @@
       <c r="BZ73" t="s">
         <v>61</v>
       </c>
-      <c r="CG73" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>637</v>
       </c>
@@ -10032,11 +9766,8 @@
       <c r="BZ74" t="s">
         <v>61</v>
       </c>
-      <c r="CG74" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>642</v>
       </c>
@@ -10085,11 +9816,8 @@
       <c r="BZ75" t="s">
         <v>152</v>
       </c>
-      <c r="CG75" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>645</v>
       </c>
@@ -10129,10 +9857,10 @@
       <c r="Q76" t="s">
         <v>130</v>
       </c>
-      <c r="R76" t="s">
+      <c r="R76" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="S76" t="s">
+      <c r="S76" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T76" t="s">
@@ -10237,10 +9965,10 @@
       <c r="BH76" t="s">
         <v>130</v>
       </c>
-      <c r="BI76" t="s">
+      <c r="BI76" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="BJ76" t="s">
+      <c r="BJ76" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK76" t="s">
@@ -10264,11 +9992,8 @@
       <c r="BZ76" t="s">
         <v>61</v>
       </c>
-      <c r="CG76" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>663</v>
       </c>
@@ -10314,11 +10039,8 @@
       <c r="BZ77" t="s">
         <v>61</v>
       </c>
-      <c r="CG77" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>668</v>
       </c>
@@ -10364,11 +10086,8 @@
       <c r="BZ78" t="s">
         <v>61</v>
       </c>
-      <c r="CG78" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>671</v>
       </c>
@@ -10421,7 +10140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>675</v>
       </c>
@@ -11232,10 +10951,10 @@
       <c r="Q95" t="s">
         <v>88</v>
       </c>
-      <c r="R95" t="s">
+      <c r="R95" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S95" t="s">
+      <c r="S95" s="12" t="s">
         <v>130</v>
       </c>
       <c r="T95" t="s">
@@ -11361,10 +11080,10 @@
       <c r="BH95" t="s">
         <v>130</v>
       </c>
-      <c r="BI95" t="s">
+      <c r="BI95" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ95" t="s">
+      <c r="BJ95" s="10" t="s">
         <v>130</v>
       </c>
       <c r="BK95" t="s">
@@ -11687,10 +11406,10 @@
       <c r="Q99" t="s">
         <v>88</v>
       </c>
-      <c r="R99" t="s">
+      <c r="R99" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S99" t="s">
+      <c r="S99" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T99" t="s">
@@ -11768,10 +11487,10 @@
       <c r="BH99" t="s">
         <v>130</v>
       </c>
-      <c r="BI99" t="s">
+      <c r="BI99" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ99" t="s">
+      <c r="BJ99" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK99" t="s">
@@ -11871,10 +11590,10 @@
       <c r="Q101" t="s">
         <v>130</v>
       </c>
-      <c r="R101" t="s">
+      <c r="R101" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S101" t="s">
+      <c r="S101" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T101" t="s">
@@ -11976,10 +11695,10 @@
       <c r="BH101" t="s">
         <v>60</v>
       </c>
-      <c r="BI101" t="s">
+      <c r="BI101" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ101" t="s">
+      <c r="BJ101" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK101" t="s">
@@ -12053,10 +11772,10 @@
       <c r="Q102" t="s">
         <v>130</v>
       </c>
-      <c r="R102" t="s">
+      <c r="R102" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S102" t="s">
+      <c r="S102" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T102" t="s">
@@ -12158,10 +11877,10 @@
       <c r="BH102" t="s">
         <v>130</v>
       </c>
-      <c r="BI102" t="s">
+      <c r="BI102" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ102" t="s">
+      <c r="BJ102" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK102" t="s">
@@ -12232,10 +11951,10 @@
       <c r="Q103" t="s">
         <v>130</v>
       </c>
-      <c r="R103" t="s">
+      <c r="R103" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S103" t="s">
+      <c r="S103" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T103" t="s">
@@ -12319,10 +12038,10 @@
       <c r="BH103" t="s">
         <v>130</v>
       </c>
-      <c r="BI103" t="s">
+      <c r="BI103" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ103" t="s">
+      <c r="BJ103" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK103" t="s">
@@ -12390,10 +12109,10 @@
       <c r="Q104" t="s">
         <v>130</v>
       </c>
-      <c r="R104" t="s">
+      <c r="R104" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S104" t="s">
+      <c r="S104" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T104" t="s">
@@ -12492,10 +12211,10 @@
       <c r="BH104" t="s">
         <v>130</v>
       </c>
-      <c r="BI104" t="s">
+      <c r="BI104" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ104" t="s">
+      <c r="BJ104" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK104" t="s">
@@ -12563,10 +12282,10 @@
       <c r="Q105" t="s">
         <v>130</v>
       </c>
-      <c r="R105" t="s">
+      <c r="R105" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S105" t="s">
+      <c r="S105" s="12" t="s">
         <v>60</v>
       </c>
       <c r="T105" t="s">
@@ -12668,10 +12387,10 @@
       <c r="BH105" t="s">
         <v>130</v>
       </c>
-      <c r="BI105" t="s">
+      <c r="BI105" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="BJ105" t="s">
+      <c r="BJ105" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BK105" t="s">
@@ -13009,6 +12728,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CG1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
